--- a/Resources/Docs/WaffenPanzerungStufenfolge.xlsx
+++ b/Resources/Docs/WaffenPanzerungStufenfolge.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="90" windowWidth="20115" windowHeight="8250"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="171">
   <si>
     <t>Schwer</t>
   </si>
@@ -523,6 +523,12 @@
   </si>
   <si>
     <t>Tarnumhang</t>
+  </si>
+  <si>
+    <t>leicht grün = im Spiel vorhanden</t>
+  </si>
+  <si>
+    <t>dunkelgrün = implementiert</t>
   </si>
 </sst>
 </file>
@@ -544,7 +550,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,6 +596,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -875,6 +887,21 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -920,19 +947,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1239,7 +1254,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,26 +1314,26 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
       <c r="F2" s="4"/>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="62" t="s">
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="63"/>
+      <c r="M2" s="48"/>
       <c r="N2" s="38"/>
       <c r="O2" s="18" t="s">
         <v>87</v>
@@ -1328,10 +1343,10 @@
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="65"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1412,23 +1427,23 @@
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="8"/>
       <c r="G5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
       <c r="K5" s="7" t="s">
         <v>42</v>
       </c>
@@ -1447,23 +1462,23 @@
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="50" t="s">
+      <c r="C6" s="51"/>
+      <c r="D6" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="51"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="8"/>
       <c r="G6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
       <c r="K6" s="14" t="s">
         <v>95</v>
       </c>
@@ -1525,10 +1540,10 @@
       <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="9" t="s">
         <v>163</v>
       </c>
@@ -1537,12 +1552,12 @@
       <c r="G8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="58" t="s">
+      <c r="H8" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
       <c r="L8" s="34" t="s">
         <v>63</v>
       </c>
@@ -1574,12 +1589,12 @@
       <c r="G9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="60"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="65"/>
       <c r="L9" s="34" t="s">
         <v>66</v>
       </c>
@@ -1593,24 +1608,24 @@
       <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="12"/>
       <c r="G10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="55" t="s">
+      <c r="H10" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
       <c r="N10" s="28"/>
       <c r="O10" s="22" t="s">
         <v>82</v>
@@ -1725,6 +1740,9 @@
         <v>79</v>
       </c>
       <c r="N14" s="1"/>
+      <c r="O14" s="46" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1758,6 +1776,9 @@
         <v>148</v>
       </c>
       <c r="N15" s="1"/>
+      <c r="O15" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1841,7 +1862,7 @@
       <c r="J18" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="67" t="s">
         <v>132</v>
       </c>
       <c r="L18" s="32" t="s">
@@ -2026,56 +2047,48 @@
       <c r="F27" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="G27" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="59"/>
       <c r="K27" s="44"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F28" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="G28" s="47" t="s">
+      <c r="G28" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="49"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="45"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F29" s="42"/>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="49"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="54"/>
       <c r="K29" s="45"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F30" s="43"/>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="49"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
       <c r="K30" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
     <mergeCell ref="G29:J29"/>
     <mergeCell ref="G30:J30"/>
     <mergeCell ref="D5:E5"/>
@@ -2087,6 +2100,14 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
